--- a/Documentação/Planilhas/Layouts/Controle_Limite.xlsx
+++ b/Documentação/Planilhas/Layouts/Controle_Limite.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
     <sheet name="rpt_relatorio_cap_analitico" sheetId="113" r:id="rId2"/>
+    <sheet name="mapeamento" sheetId="114" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="114">
   <si>
     <t>Campo</t>
   </si>
@@ -63,9 +64,6 @@
   </si>
   <si>
     <t>MIS_ODS</t>
-  </si>
-  <si>
-    <t>N:\Migracao\Controle de Limite\Controle de Limite\ods_cap_analitico.dtsx</t>
   </si>
   <si>
     <t>[dbo].[rpt_relatorio_cap_analitico]</t>
@@ -290,70 +288,114 @@
 vl_titulo)</t>
   </si>
   <si>
-    <t>vl_mercadoria / 
+    <t>in_bloqueio_titulo</t>
+  </si>
+  <si>
+    <t>nr_referencia_fiscal</t>
+  </si>
+  <si>
+    <t>nr_nf_recebida</t>
+  </si>
+  <si>
+    <t>cd_condicao_pagamento</t>
+  </si>
+  <si>
+    <t>vl_total_item_nf</t>
+  </si>
+  <si>
+    <t>nr_pedido_compra</t>
+  </si>
+  <si>
+    <t>ln.ods_pec_cab</t>
+  </si>
+  <si>
+    <t>ds_observacao_pedido</t>
+  </si>
+  <si>
+    <t>cd_natureza_operacao</t>
+  </si>
+  <si>
+    <t>sq_natureza_operacao</t>
+  </si>
+  <si>
+    <t>MIS_DW</t>
+  </si>
+  <si>
+    <t>ods_product</t>
+  </si>
+  <si>
+    <t>ds_depto</t>
+  </si>
+  <si>
+    <t>ds_sector</t>
+  </si>
+  <si>
+    <t>pelo CD_ITEM da ln.ods_nfr_det</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>case when ln.ods_cap_titulo.nr_titulo is null then 'N' else 'S' end as ds_flagprepagto</t>
+  </si>
+  <si>
+    <t>ds_product</t>
+  </si>
+  <si>
+    <t>mis_ods</t>
+  </si>
+  <si>
+    <t>mis_migracao</t>
+  </si>
+  <si>
+    <t>stg_dom_parceiro_cadastro</t>
+  </si>
+  <si>
+    <t>mis_dw</t>
+  </si>
+  <si>
+    <t>dim_product</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vl_mercadoria / 
 (vl_total_nf *
-pfrios.pc_cpag.saldotithoje(nr_titulo)</t>
-  </si>
-  <si>
-    <t>in_bloqueio_titulo</t>
-  </si>
-  <si>
-    <t>nr_referencia_fiscal</t>
-  </si>
-  <si>
-    <t>nr_nf_recebida</t>
-  </si>
-  <si>
-    <t>cd_condicao_pagamento</t>
-  </si>
-  <si>
-    <t>vl_total_item_nf</t>
-  </si>
-  <si>
-    <t>nr_pedido_compra</t>
-  </si>
-  <si>
-    <t>ln.ods_pec_cab</t>
-  </si>
-  <si>
-    <t>ds_observacao_pedido</t>
-  </si>
-  <si>
-    <t>cd_natureza_operacao</t>
-  </si>
-  <si>
-    <t>sq_natureza_operacao</t>
-  </si>
-  <si>
-    <t>MIS_DW</t>
-  </si>
-  <si>
-    <t>ods_product</t>
-  </si>
-  <si>
-    <t>ds_depto</t>
-  </si>
-  <si>
-    <t>ds_sector</t>
-  </si>
-  <si>
-    <t>pelo CD_ITEM da ln.ods_nfr_det</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>case when ln.ods_cap_titulo.nr_titulo is null then 'N' else 'S' end as ds_flagprepagto</t>
-  </si>
-  <si>
-    <t>ds_product</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pfrios.pc_cpag.saldotithoje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(nr_titulo)</t>
+    </r>
+  </si>
+  <si>
+    <t>N:\Migracao\Controle de Limite_LN\Controle de Limite\ods_cap_analitico_ln.dtsx</t>
+  </si>
+  <si>
+    <t>Identifica a observação feita para o título [Não tenho na tabela]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,8 +432,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +460,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5353"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -649,7 +705,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -717,6 +773,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,6 +808,51 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1078,7 +1185,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1116,7 +1223,7 @@
       </c>
       <c r="D3" s="15" t="str">
         <f>rpt_relatorio_cap_analitico!B10</f>
-        <v>N:\Migracao\Controle de Limite\Controle de Limite\ods_cap_analitico.dtsx</v>
+        <v>N:\Migracao\Controle de Limite_LN\Controle de Limite\ods_cap_analitico_ln.dtsx</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -1182,20 +1289,384 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" style="28" customWidth="1"/>
     <col min="8" max="8" width="33.7109375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1226,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1234,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1242,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.25" customHeight="1"/>
@@ -1257,10 +1728,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>9</v>
@@ -1271,455 +1742,455 @@
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="58.5" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="64.5" customHeight="1">
       <c r="A23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B24" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C24" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>61</v>
+      <c r="A30" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="F33" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="F34" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+        <v>69</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentação/Planilhas/Layouts/Controle_Limite.xlsx
+++ b/Documentação/Planilhas/Layouts/Controle_Limite.xlsx
@@ -343,12 +343,6 @@
   </si>
   <si>
     <t>mis_ods</t>
-  </si>
-  <si>
-    <t>mis_migracao</t>
-  </si>
-  <si>
-    <t>stg_dom_parceiro_cadastro</t>
   </si>
   <si>
     <t>mis_dw</t>
@@ -389,6 +383,12 @@
   </si>
   <si>
     <t>Identifica a observação feita para o título [Não tenho na tabela]</t>
+  </si>
+  <si>
+    <t>mis_ln</t>
+  </si>
+  <si>
+    <t>dbo.stg_dom_parceiro_cadastro</t>
   </si>
 </sst>
 </file>
@@ -1182,6 +1182,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1289,10 +1292,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1347,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1429,10 +1435,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
@@ -1443,10 +1449,10 @@
         <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
@@ -1492,7 +1498,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -1655,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1713,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.25" customHeight="1"/>
@@ -1923,7 +1929,7 @@
         <v>85</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
